--- a/data/Port Code Mapping - COSCO.xlsx
+++ b/data/Port Code Mapping - COSCO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tym.Teo\Documents\Delay Report - Rewrite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEC317-6BDA-4EF7-8514-9037A3A621DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BBEC76-8E1C-4CC9-8A46-88E77904DF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CMA" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OOCL!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OOCL!$A$1:$B$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="133">
   <si>
     <t>Booking Office</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>First Name</t>
+  </si>
+  <si>
+    <t>AUSYD</t>
+  </si>
+  <si>
+    <t>Sydney, ,New South Wales,Australia,AUSYD</t>
+  </si>
+  <si>
+    <t>Sydney</t>
   </si>
 </sst>
 </file>
@@ -893,11 +902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -924,384 +933,401 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C2" s="8">
-        <v>738872886233435</v>
+        <v>738872886231344</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="8">
-        <v>738872886231344</v>
+        <v>738872886231120</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C4" s="8">
-        <v>738872886234630</v>
+        <v>738872886232233</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8">
-        <v>738872349360398</v>
+        <v>738872886232873</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8">
-        <v>738872886234609</v>
+        <v>738872886259800</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8">
-        <v>738872886234375</v>
+        <v>738872886234270</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8">
-        <v>738872886234414</v>
+        <v>738877718069375</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8">
-        <v>738872886234414</v>
+        <v>738872886236039</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8">
-        <v>738872886234446</v>
+        <v>738872886236160</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8">
-        <v>738872886234270</v>
+        <v>738872886235553</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8">
-        <v>738872886233804</v>
+        <v>738875570585706</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C13" s="8">
-        <v>738872886233616</v>
+        <v>738872886234446</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="8">
-        <v>738872886233472</v>
+        <v>738872886234609</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C15" s="8">
-        <v>738872886231120</v>
+        <v>738872886234630</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="8">
-        <v>738875570585706</v>
+        <v>738872886235074</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C17" s="8">
-        <v>738872886236039</v>
+        <v>738872886235017</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C18" s="8">
-        <v>738877718069375</v>
+        <v>738877181198489</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C19" s="8">
-        <v>738872886236160</v>
+        <v>738872886270322</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C20" s="8">
-        <v>738872886235017</v>
+        <v>738872886233881</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C21" s="8">
-        <v>738872886235074</v>
+        <v>738872886233472</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" s="8">
-        <v>738877181198489</v>
+        <v>738872886233435</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C23" s="8">
-        <v>738872886270322</v>
+        <v>738872886233616</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C24" s="8">
-        <v>738872886232873</v>
+        <v>738872886233804</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8">
-        <v>738872886233881</v>
+        <v>738872886233805</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="8">
-        <v>738872886233805</v>
+        <v>738872349360398</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C27" s="8">
-        <v>738872886259800</v>
+        <v>738872886234414</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C28" s="8">
-        <v>738872886235553</v>
+        <v>738872886234375</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="8">
+        <v>738872886234414</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B28" xr:uid="{72BC6BF3-52B5-4494-85A2-DAA283D10605}"/>
+  <autoFilter ref="A1:B29" xr:uid="{72BC6BF3-52B5-4494-85A2-DAA283D10605}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="A2:A29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2279,12 +2305,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B07C177EC98944892D6859FC7228F27" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa0312146baf983fe551619124602045">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cadb0006-b086-403f-9c46-c0186d7f6965" xmlns:ns3="4af93f69-0cef-4f40-803d-f637351e1512" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8aa75208339fe16869b5142f429bf55" ns2:_="" ns3:_="">
     <xsd:import namespace="cadb0006-b086-403f-9c46-c0186d7f6965"/>
@@ -2501,7 +2521,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2510,16 +2530,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80FBAC62-C129-4627-A795-495E3326B79B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2538,10 +2555,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01DD0693-FE4D-4885-BF24-94BEA9248921}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE68490-0574-4399-8E76-2FC2ACED3CAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>